--- a/EXCEL1_DATA_ENTRY_18.01.26.xlsx
+++ b/EXCEL1_DATA_ENTRY_18.01.26.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC1\Desktop\JIYA GITHUB\DATA-ANALYTICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC1\Desktop\Jiya_Github\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB5D76D-919C-4E5B-8D07-59EB412CBFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F67CAB-A2BE-4904-9A01-AB2929E5D394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8F23193C-F1ED-4459-961E-E75166BBE6B3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Basic Data Entry" sheetId="1" r:id="rId1"/>
     <sheet name="Split and Text to Column" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -445,12 +445,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -468,12 +462,6 @@
     <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,6 +469,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2177,7 +2177,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,20 +2388,20 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11">
+      <c r="B12" s="20"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9">
         <f>SUM(D2:D11)</f>
         <v>259</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <f>SUM(E2:E11)</f>
         <v>374807</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2414,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0287EAE9-4342-4AC7-BD40-7A852AE279A1}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,43 +2437,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       <c r="E2" s="2">
         <v>30</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="15">
         <v>29516</v>
       </c>
       <c r="G2" s="2">
@@ -2537,7 +2537,7 @@
       <c r="E3" s="2">
         <v>25</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <v>40258</v>
       </c>
       <c r="G3" s="2">
@@ -2580,7 +2580,7 @@
       <c r="E4" s="2">
         <v>29</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <v>24067</v>
       </c>
       <c r="G4" s="2">
@@ -2623,7 +2623,7 @@
       <c r="E5" s="2">
         <v>20</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>20019</v>
       </c>
       <c r="G5" s="2">
@@ -2666,7 +2666,7 @@
       <c r="E6" s="2">
         <v>27</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>49770</v>
       </c>
       <c r="G6" s="2">
@@ -2709,7 +2709,7 @@
       <c r="E7" s="2">
         <v>27</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>44090</v>
       </c>
       <c r="G7" s="2">
@@ -2752,7 +2752,7 @@
       <c r="E8" s="2">
         <v>25</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>44624</v>
       </c>
       <c r="G8" s="2">
@@ -2795,7 +2795,7 @@
       <c r="E9" s="2">
         <v>26</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>42693</v>
       </c>
       <c r="G9" s="2">
@@ -2838,7 +2838,7 @@
       <c r="E10" s="2">
         <v>27</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>39498</v>
       </c>
       <c r="G10" s="2">
@@ -2881,7 +2881,7 @@
       <c r="E11" s="2">
         <v>23</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>40272</v>
       </c>
       <c r="G11" s="2">
@@ -2908,34 +2908,37 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="20">
+      <c r="B12" s="22"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="16">
         <f>SUM(E2:E11)</f>
         <v>259</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="17">
         <f>SUM(F2:F11)</f>
         <v>374807</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="22"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A12:B12"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{F8B9E3AA-2EB1-4726-9A13-05CB0072477F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>